--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AC/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AC/20/seed5/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-13.7785</v>
+        <v>-13.28519999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -502,7 +502,7 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.39300000000002</v>
+        <v>-14.54600000000001</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.9532</v>
+        <v>-11.6294</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.15399999999999</v>
+        <v>-12.36509999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.81220000000002</v>
+        <v>-21.85650000000002</v>
       </c>
       <c r="B11" t="n">
         <v>6.01</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.86430000000002</v>
+        <v>-21.45060000000002</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-13.4506</v>
+        <v>-11.92679999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-11.4888</v>
+        <v>-11.49649999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.21580000000001</v>
+        <v>-21.26150000000001</v>
       </c>
       <c r="B15" t="n">
         <v>5.53</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-10.94819999999999</v>
+        <v>-10.98609999999999</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
